--- a/جدول النصوص.xlsx
+++ b/جدول النصوص.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\023\Desktop\محول النصوص ومدخلها\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC2D4DD-6EF4-4D9F-BCA1-7DB9E517EB4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
-    <t>النص المترجم</t>
-  </si>
-  <si>
     <t>النص الأصلي</t>
   </si>
   <si>
@@ -71,12 +62,15 @@
   </si>
   <si>
     <t>ماذا</t>
+  </si>
+  <si>
+    <t>الترجمة</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -179,7 +173,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="عادي 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="عادي 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -451,103 +445,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="44.69921875" customWidth="1"/>
-    <col min="2" max="2" width="44.3984375" customWidth="1"/>
+    <col min="1" max="1" width="44.75" customWidth="1"/>
+    <col min="2" max="2" width="44.375" customWidth="1"/>
     <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" customHeight="1" thickBot="1">
+    <row r="1" spans="1:4" ht="14.45" customHeight="1" thickBot="1">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="26.25" thickBot="1">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="27" thickBot="1">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="26.25" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1">
+      <c r="A4" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="27" thickBot="1">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.45" customHeight="1" thickBot="1">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A7" s="4" t="s">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:4" ht="15" thickBot="1">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/جدول النصوص.xlsx
+++ b/جدول النصوص.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>النص الأصلي</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>الترجمة</t>
+  </si>
+  <si>
+    <t>لا تفتح هذا الملف أثناء تشغيل الأداة.</t>
   </si>
 </sst>
 </file>
@@ -156,7 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -170,6 +173,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -467,15 +471,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26.25" thickBot="1">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
+      <c r="D2" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="26.25" thickBot="1">
@@ -486,16 +490,16 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.25" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.45" customHeight="1" thickBot="1">
@@ -504,6 +508,9 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1">
